--- a/backend/modules/import/templates/template.xlsx
+++ b/backend/modules/import/templates/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aplikasi\xampp7.1.2\htdocs\iabee\backend\modules\import\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\iabee\backend\modules\import\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD004A2F-6872-42FE-A00F-D61BE43C3E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EA0AD0-FAE1-4037-AB40-8CBF7416041F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8D77FA8A-F331-40F0-9C72-F1E9CF6A7C60}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7995" xr2:uid="{8D77FA8A-F331-40F0-9C72-F1E9CF6A7C60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,6 +287,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B72AD4E-E665-4320-9E1D-59F2EE0EC394}">
   <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,53 +622,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -726,36 +726,36 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,10 +773,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C11:H11"/>
-    <mergeCell ref="B12:H12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:H4"/>
@@ -788,6 +787,8 @@
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
